--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_极光组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_极光组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>茅寰寰、韩美娟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财审核中和审核拒绝状态，租客账单逾期产生滞纳金问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化逾期信息统计，退房后原逾期数据未显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾宝碗</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +928,7 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1212,18 +1224,38 @@
       <c r="S6" s="39"/>
       <c r="T6" s="40"/>
     </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="16.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="33">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="20">
+        <v>42653</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="20">
+        <v>42653</v>
+      </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="18"/>
       <c r="M7" s="29"/>
       <c r="N7" s="20"/>
@@ -1235,17 +1267,37 @@
       <c r="T7" s="40"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="20">
+        <v>42653</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20">
+        <v>42653</v>
+      </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="18"/>
       <c r="M8" s="29"/>
       <c r="N8" s="20"/>
@@ -1263,7 +1315,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="20"/>
       <c r="I9" s="19"/>
       <c r="J9" s="33"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_极光组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_极光组.xlsx
@@ -11,7 +11,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.2.3 新特性|Fix Bug'!$A$1:$S$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.2.3 新特性|Fix Bug'!$A$1:$S$12</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -152,15 +152,31 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>聚有财审核中和审核拒绝状态，租客账单逾期产生滞纳金问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>优化逾期信息统计，退房后原逾期数据未显示</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>顾宝碗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉、王云飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,9 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T193"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -945,7 +958,8 @@
     <col min="10" max="10" width="18.625" style="12" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="12" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="12" customWidth="1"/>
-    <col min="13" max="14" width="10" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="13" customWidth="1"/>
     <col min="15" max="15" width="7.625" style="13" customWidth="1"/>
     <col min="16" max="16" width="12" style="14" customWidth="1"/>
     <col min="17" max="17" width="17" style="14" customWidth="1"/>
@@ -1046,15 +1060,23 @@
       <c r="K2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="29"/>
-      <c r="T2" s="38"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A3" s="16">
@@ -1088,15 +1110,23 @@
       <c r="K3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="29"/>
+      <c r="L3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="40"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A4" s="16">
@@ -1130,15 +1160,23 @@
       <c r="K4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="29"/>
+      <c r="L4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A5" s="16">
@@ -1172,15 +1210,23 @@
       <c r="K5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="29"/>
+      <c r="L5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="39"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="16">
@@ -1214,17 +1260,25 @@
       <c r="K6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="29"/>
+      <c r="L6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
-    </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="33">
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -1249,64 +1303,52 @@
       <c r="H7" s="20">
         <v>42653</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="29"/>
+      <c r="L7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="20">
-        <v>42653</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="20">
-        <v>42653</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="29"/>
       <c r="N8" s="20"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="42"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A9" s="16"/>
@@ -1314,21 +1356,21 @@
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="33"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="29"/>
       <c r="N9" s="20"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A10" s="16"/>
@@ -1340,63 +1382,63 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="29"/>
       <c r="N10" s="20"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="29"/>
       <c r="N11" s="20"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="42"/>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="18"/>
       <c r="M12" s="29"/>
       <c r="N12" s="20"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="42"/>
-    </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+    </row>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A13" s="16"/>
       <c r="B13" s="22"/>
       <c r="C13" s="18"/>
@@ -1406,17 +1448,17 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="33"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="19"/>
       <c r="L13" s="18"/>
       <c r="M13" s="29"/>
       <c r="N13" s="20"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A14" s="16"/>
@@ -1428,43 +1470,43 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="33"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="19"/>
       <c r="L14" s="18"/>
       <c r="M14" s="29"/>
       <c r="N14" s="20"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+    </row>
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="19.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="33"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="19"/>
       <c r="L15" s="18"/>
       <c r="M15" s="29"/>
       <c r="N15" s="20"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
-    </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="19.5">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
+    </row>
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A16" s="16"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1481,8 +1523,8 @@
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="40"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="39"/>
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A17" s="16"/>
@@ -1503,8 +1545,8 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="40"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A18" s="16"/>
@@ -1525,8 +1567,8 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="40"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="39"/>
     </row>
     <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A19" s="16"/>
@@ -1547,20 +1589,20 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="40"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="39"/>
     </row>
     <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="19"/>
       <c r="L20" s="18"/>
       <c r="M20" s="29"/>
@@ -1569,8 +1611,8 @@
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="40"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="39"/>
     </row>
     <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A21" s="16"/>
@@ -1582,7 +1624,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="33"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="19"/>
       <c r="L21" s="18"/>
       <c r="M21" s="29"/>
@@ -1591,21 +1633,21 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="40"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
     </row>
     <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A22" s="16"/>
-      <c r="B22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="18"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="29"/>
       <c r="N22" s="20"/>
@@ -1613,8 +1655,8 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="40"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="39"/>
     </row>
     <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A23" s="16"/>
@@ -1635,8 +1677,8 @@
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="40"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A24" s="16"/>
@@ -1657,8 +1699,8 @@
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="40"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="39"/>
     </row>
     <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A25" s="16"/>
@@ -1679,8 +1721,8 @@
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="40"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="39"/>
     </row>
     <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A26" s="16"/>
@@ -1701,8 +1743,8 @@
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="40"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="39"/>
     </row>
     <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A27" s="16"/>
@@ -1723,8 +1765,8 @@
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="40"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A28" s="16"/>
@@ -1745,30 +1787,30 @@
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="40"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="39"/>
     </row>
     <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="18"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="29"/>
       <c r="N29" s="20"/>
       <c r="O29" s="29"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="40"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="39"/>
     </row>
     <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A30" s="16"/>
@@ -1779,7 +1821,7 @@
       <c r="F30" s="26"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="35"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
@@ -1789,30 +1831,30 @@
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="40"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="39"/>
     </row>
     <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A31" s="16"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="29"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="20"/>
       <c r="O31" s="29"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="40"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="39"/>
     </row>
     <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A32" s="16"/>
@@ -1823,7 +1865,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
@@ -1833,8 +1875,8 @@
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="40"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A33" s="16"/>
@@ -1845,18 +1887,18 @@
       <c r="F33" s="28"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="20"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="29"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="40"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="39"/>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A34" s="16"/>
@@ -1867,7 +1909,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -1877,11 +1919,11 @@
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="40"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="39"/>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1" ht="16.5">
-      <c r="A35" s="16"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27"/>
       <c r="D35" s="18"/>
@@ -1889,18 +1931,18 @@
       <c r="F35" s="28"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="29"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="36"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="40"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="39"/>
     </row>
     <row r="36" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A36" s="25"/>
@@ -1911,21 +1953,21 @@
       <c r="F36" s="28"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="37"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="40"/>
-    </row>
-    <row r="37" spans="1:20" s="10" customFormat="1" ht="16.5">
-      <c r="A37" s="25"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="39"/>
+    </row>
+    <row r="37" spans="1:20" ht="16.5">
+      <c r="A37" s="27"/>
       <c r="B37" s="24"/>
       <c r="C37" s="27"/>
       <c r="D37" s="18"/>
@@ -1933,18 +1975,17 @@
       <c r="F37" s="28"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="36"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
       <c r="N37" s="28"/>
-      <c r="O37" s="37"/>
+      <c r="O37" s="24"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="40"/>
+      <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="27"/>
@@ -1955,7 +1996,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
@@ -1976,7 +2017,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
@@ -1997,7 +2038,7 @@
       <c r="F40" s="28"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="36"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
@@ -2018,7 +2059,7 @@
       <c r="F41" s="28"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="36"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
@@ -2039,7 +2080,7 @@
       <c r="F42" s="28"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
@@ -2060,7 +2101,7 @@
       <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="36"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
@@ -2081,7 +2122,7 @@
       <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
@@ -2102,7 +2143,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="36"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
@@ -2123,7 +2164,7 @@
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="36"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
@@ -2144,7 +2185,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="36"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
@@ -2165,7 +2206,7 @@
       <c r="F48" s="28"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="36"/>
+      <c r="I48" s="35"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -2186,7 +2227,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="36"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
@@ -2207,7 +2248,7 @@
       <c r="F50" s="28"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="36"/>
+      <c r="I50" s="35"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
       <c r="L50" s="27"/>
@@ -2228,7 +2269,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="36"/>
+      <c r="I51" s="35"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
       <c r="L51" s="27"/>
@@ -2249,7 +2290,7 @@
       <c r="F52" s="28"/>
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="35"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
       <c r="L52" s="27"/>
@@ -2270,7 +2311,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="35"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
       <c r="L53" s="27"/>
@@ -2291,7 +2332,7 @@
       <c r="F54" s="28"/>
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="36"/>
+      <c r="I54" s="35"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
       <c r="L54" s="27"/>
@@ -2312,7 +2353,7 @@
       <c r="F55" s="28"/>
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="35"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
       <c r="L55" s="27"/>
@@ -2333,7 +2374,7 @@
       <c r="F56" s="28"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
       <c r="L56" s="27"/>
@@ -2354,7 +2395,7 @@
       <c r="F57" s="28"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="35"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
       <c r="L57" s="27"/>
@@ -2375,7 +2416,7 @@
       <c r="F58" s="28"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
       <c r="L58" s="27"/>
@@ -2396,7 +2437,7 @@
       <c r="F59" s="28"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="35"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
       <c r="L59" s="27"/>
@@ -2417,7 +2458,7 @@
       <c r="F60" s="28"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="35"/>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
@@ -2438,7 +2479,7 @@
       <c r="F61" s="28"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="27"/>
       <c r="K61" s="27"/>
       <c r="L61" s="27"/>
@@ -2459,7 +2500,7 @@
       <c r="F62" s="28"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="35"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
       <c r="L62" s="27"/>
@@ -2480,7 +2521,7 @@
       <c r="F63" s="28"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="35"/>
       <c r="J63" s="27"/>
       <c r="K63" s="27"/>
       <c r="L63" s="27"/>
@@ -2501,7 +2542,7 @@
       <c r="F64" s="28"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="27"/>
       <c r="K64" s="27"/>
       <c r="L64" s="27"/>
@@ -2522,7 +2563,7 @@
       <c r="F65" s="28"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="35"/>
       <c r="J65" s="27"/>
       <c r="K65" s="27"/>
       <c r="L65" s="27"/>
@@ -2543,7 +2584,7 @@
       <c r="F66" s="28"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="35"/>
       <c r="J66" s="27"/>
       <c r="K66" s="27"/>
       <c r="L66" s="27"/>
@@ -2564,7 +2605,7 @@
       <c r="F67" s="28"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="27"/>
       <c r="K67" s="27"/>
       <c r="L67" s="27"/>
@@ -2585,7 +2626,7 @@
       <c r="F68" s="28"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
@@ -2606,7 +2647,7 @@
       <c r="F69" s="28"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
@@ -2627,7 +2668,7 @@
       <c r="F70" s="28"/>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="27"/>
       <c r="K70" s="27"/>
       <c r="L70" s="27"/>
@@ -2648,7 +2689,7 @@
       <c r="F71" s="28"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="27"/>
       <c r="K71" s="27"/>
       <c r="L71" s="27"/>
@@ -2669,7 +2710,7 @@
       <c r="F72" s="28"/>
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="35"/>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
@@ -2690,7 +2731,7 @@
       <c r="F73" s="28"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
@@ -2711,7 +2752,7 @@
       <c r="F74" s="28"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
@@ -2732,7 +2773,7 @@
       <c r="F75" s="28"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="35"/>
       <c r="J75" s="27"/>
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
@@ -2753,7 +2794,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="27"/>
       <c r="H76" s="28"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
       <c r="L76" s="27"/>
@@ -2774,7 +2815,7 @@
       <c r="F77" s="28"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
@@ -2795,7 +2836,7 @@
       <c r="F78" s="28"/>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
       <c r="L78" s="27"/>
@@ -2816,7 +2857,7 @@
       <c r="F79" s="28"/>
       <c r="G79" s="27"/>
       <c r="H79" s="28"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="35"/>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
@@ -2837,7 +2878,7 @@
       <c r="F80" s="28"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="35"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
       <c r="L80" s="27"/>
@@ -2858,7 +2899,7 @@
       <c r="F81" s="28"/>
       <c r="G81" s="27"/>
       <c r="H81" s="28"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="35"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
       <c r="L81" s="27"/>
@@ -2879,7 +2920,7 @@
       <c r="F82" s="28"/>
       <c r="G82" s="27"/>
       <c r="H82" s="28"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
       <c r="L82" s="27"/>
@@ -2900,7 +2941,7 @@
       <c r="F83" s="28"/>
       <c r="G83" s="27"/>
       <c r="H83" s="28"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="35"/>
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
       <c r="L83" s="27"/>
@@ -2921,7 +2962,7 @@
       <c r="F84" s="28"/>
       <c r="G84" s="27"/>
       <c r="H84" s="28"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="35"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
       <c r="L84" s="27"/>
@@ -2942,7 +2983,7 @@
       <c r="F85" s="28"/>
       <c r="G85" s="27"/>
       <c r="H85" s="28"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="35"/>
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
       <c r="L85" s="27"/>
@@ -2959,11 +3000,11 @@
       <c r="B86" s="24"/>
       <c r="C86" s="27"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="28"/>
       <c r="G86" s="27"/>
       <c r="H86" s="28"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="35"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
       <c r="L86" s="27"/>
@@ -2984,7 +3025,7 @@
       <c r="F87" s="28"/>
       <c r="G87" s="27"/>
       <c r="H87" s="28"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="35"/>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
       <c r="L87" s="27"/>
@@ -3005,7 +3046,7 @@
       <c r="F88" s="28"/>
       <c r="G88" s="27"/>
       <c r="H88" s="28"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="35"/>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
       <c r="L88" s="27"/>
@@ -3026,7 +3067,7 @@
       <c r="F89" s="28"/>
       <c r="G89" s="27"/>
       <c r="H89" s="28"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="35"/>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
       <c r="L89" s="27"/>
@@ -3047,7 +3088,7 @@
       <c r="F90" s="28"/>
       <c r="G90" s="27"/>
       <c r="H90" s="28"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="35"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
@@ -3068,7 +3109,7 @@
       <c r="F91" s="28"/>
       <c r="G91" s="27"/>
       <c r="H91" s="28"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="35"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
@@ -3080,16 +3121,16 @@
       <c r="R91" s="27"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19">
       <c r="A92" s="27"/>
       <c r="B92" s="24"/>
       <c r="C92" s="27"/>
-      <c r="D92" s="18"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="28"/>
       <c r="G92" s="27"/>
       <c r="H92" s="28"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="35"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
@@ -3110,7 +3151,7 @@
       <c r="F93" s="28"/>
       <c r="G93" s="27"/>
       <c r="H93" s="28"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="35"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
@@ -3131,7 +3172,7 @@
       <c r="F94" s="28"/>
       <c r="G94" s="27"/>
       <c r="H94" s="28"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="35"/>
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
       <c r="L94" s="27"/>
@@ -3152,7 +3193,7 @@
       <c r="F95" s="28"/>
       <c r="G95" s="27"/>
       <c r="H95" s="28"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="35"/>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
       <c r="L95" s="27"/>
@@ -3173,7 +3214,7 @@
       <c r="F96" s="28"/>
       <c r="G96" s="27"/>
       <c r="H96" s="28"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="35"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
@@ -3194,7 +3235,7 @@
       <c r="F97" s="28"/>
       <c r="G97" s="27"/>
       <c r="H97" s="28"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="35"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
@@ -3215,7 +3256,7 @@
       <c r="F98" s="28"/>
       <c r="G98" s="27"/>
       <c r="H98" s="28"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="35"/>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
@@ -3236,7 +3277,7 @@
       <c r="F99" s="28"/>
       <c r="G99" s="27"/>
       <c r="H99" s="28"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="35"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
       <c r="L99" s="27"/>
@@ -3257,7 +3298,7 @@
       <c r="F100" s="28"/>
       <c r="G100" s="27"/>
       <c r="H100" s="28"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="35"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27"/>
       <c r="L100" s="27"/>
@@ -3278,7 +3319,7 @@
       <c r="F101" s="28"/>
       <c r="G101" s="27"/>
       <c r="H101" s="28"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="35"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
       <c r="L101" s="27"/>
@@ -3299,7 +3340,7 @@
       <c r="F102" s="28"/>
       <c r="G102" s="27"/>
       <c r="H102" s="28"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="35"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
       <c r="L102" s="27"/>
@@ -3320,7 +3361,7 @@
       <c r="F103" s="28"/>
       <c r="G103" s="27"/>
       <c r="H103" s="28"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="35"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
       <c r="L103" s="27"/>
@@ -3341,7 +3382,7 @@
       <c r="F104" s="28"/>
       <c r="G104" s="27"/>
       <c r="H104" s="28"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="35"/>
       <c r="J104" s="27"/>
       <c r="K104" s="27"/>
       <c r="L104" s="27"/>
@@ -3362,7 +3403,7 @@
       <c r="F105" s="28"/>
       <c r="G105" s="27"/>
       <c r="H105" s="28"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="35"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
       <c r="L105" s="27"/>
@@ -3383,7 +3424,7 @@
       <c r="F106" s="28"/>
       <c r="G106" s="27"/>
       <c r="H106" s="28"/>
-      <c r="I106" s="36"/>
+      <c r="I106" s="35"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
@@ -3404,7 +3445,7 @@
       <c r="F107" s="28"/>
       <c r="G107" s="27"/>
       <c r="H107" s="28"/>
-      <c r="I107" s="36"/>
+      <c r="I107" s="35"/>
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
       <c r="L107" s="27"/>
@@ -3425,7 +3466,7 @@
       <c r="F108" s="28"/>
       <c r="G108" s="27"/>
       <c r="H108" s="28"/>
-      <c r="I108" s="36"/>
+      <c r="I108" s="35"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
       <c r="L108" s="27"/>
@@ -3446,7 +3487,7 @@
       <c r="F109" s="28"/>
       <c r="G109" s="27"/>
       <c r="H109" s="28"/>
-      <c r="I109" s="36"/>
+      <c r="I109" s="35"/>
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
       <c r="L109" s="27"/>
@@ -3467,7 +3508,7 @@
       <c r="F110" s="28"/>
       <c r="G110" s="27"/>
       <c r="H110" s="28"/>
-      <c r="I110" s="36"/>
+      <c r="I110" s="35"/>
       <c r="J110" s="27"/>
       <c r="K110" s="27"/>
       <c r="L110" s="27"/>
@@ -3488,7 +3529,7 @@
       <c r="F111" s="28"/>
       <c r="G111" s="27"/>
       <c r="H111" s="28"/>
-      <c r="I111" s="36"/>
+      <c r="I111" s="35"/>
       <c r="J111" s="27"/>
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
@@ -3509,7 +3550,7 @@
       <c r="F112" s="28"/>
       <c r="G112" s="27"/>
       <c r="H112" s="28"/>
-      <c r="I112" s="36"/>
+      <c r="I112" s="35"/>
       <c r="J112" s="27"/>
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
@@ -3530,7 +3571,7 @@
       <c r="F113" s="28"/>
       <c r="G113" s="27"/>
       <c r="H113" s="28"/>
-      <c r="I113" s="36"/>
+      <c r="I113" s="35"/>
       <c r="J113" s="27"/>
       <c r="K113" s="27"/>
       <c r="L113" s="27"/>
@@ -3551,7 +3592,7 @@
       <c r="F114" s="28"/>
       <c r="G114" s="27"/>
       <c r="H114" s="28"/>
-      <c r="I114" s="36"/>
+      <c r="I114" s="35"/>
       <c r="J114" s="27"/>
       <c r="K114" s="27"/>
       <c r="L114" s="27"/>
@@ -3572,7 +3613,7 @@
       <c r="F115" s="28"/>
       <c r="G115" s="27"/>
       <c r="H115" s="28"/>
-      <c r="I115" s="36"/>
+      <c r="I115" s="35"/>
       <c r="J115" s="27"/>
       <c r="K115" s="27"/>
       <c r="L115" s="27"/>
@@ -3593,7 +3634,7 @@
       <c r="F116" s="28"/>
       <c r="G116" s="27"/>
       <c r="H116" s="28"/>
-      <c r="I116" s="36"/>
+      <c r="I116" s="35"/>
       <c r="J116" s="27"/>
       <c r="K116" s="27"/>
       <c r="L116" s="27"/>
@@ -3614,7 +3655,7 @@
       <c r="F117" s="28"/>
       <c r="G117" s="27"/>
       <c r="H117" s="28"/>
-      <c r="I117" s="36"/>
+      <c r="I117" s="35"/>
       <c r="J117" s="27"/>
       <c r="K117" s="27"/>
       <c r="L117" s="27"/>
@@ -3635,7 +3676,7 @@
       <c r="F118" s="28"/>
       <c r="G118" s="27"/>
       <c r="H118" s="28"/>
-      <c r="I118" s="36"/>
+      <c r="I118" s="35"/>
       <c r="J118" s="27"/>
       <c r="K118" s="27"/>
       <c r="L118" s="27"/>
@@ -3656,7 +3697,7 @@
       <c r="F119" s="28"/>
       <c r="G119" s="27"/>
       <c r="H119" s="28"/>
-      <c r="I119" s="36"/>
+      <c r="I119" s="35"/>
       <c r="J119" s="27"/>
       <c r="K119" s="27"/>
       <c r="L119" s="27"/>
@@ -3677,7 +3718,7 @@
       <c r="F120" s="28"/>
       <c r="G120" s="27"/>
       <c r="H120" s="28"/>
-      <c r="I120" s="36"/>
+      <c r="I120" s="35"/>
       <c r="J120" s="27"/>
       <c r="K120" s="27"/>
       <c r="L120" s="27"/>
@@ -3698,7 +3739,7 @@
       <c r="F121" s="28"/>
       <c r="G121" s="27"/>
       <c r="H121" s="28"/>
-      <c r="I121" s="36"/>
+      <c r="I121" s="35"/>
       <c r="J121" s="27"/>
       <c r="K121" s="27"/>
       <c r="L121" s="27"/>
@@ -3719,7 +3760,7 @@
       <c r="F122" s="28"/>
       <c r="G122" s="27"/>
       <c r="H122" s="28"/>
-      <c r="I122" s="36"/>
+      <c r="I122" s="35"/>
       <c r="J122" s="27"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
@@ -3740,7 +3781,7 @@
       <c r="F123" s="28"/>
       <c r="G123" s="27"/>
       <c r="H123" s="28"/>
-      <c r="I123" s="36"/>
+      <c r="I123" s="35"/>
       <c r="J123" s="27"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
@@ -3761,7 +3802,7 @@
       <c r="F124" s="28"/>
       <c r="G124" s="27"/>
       <c r="H124" s="28"/>
-      <c r="I124" s="36"/>
+      <c r="I124" s="35"/>
       <c r="J124" s="27"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
@@ -3782,7 +3823,7 @@
       <c r="F125" s="28"/>
       <c r="G125" s="27"/>
       <c r="H125" s="28"/>
-      <c r="I125" s="36"/>
+      <c r="I125" s="35"/>
       <c r="J125" s="27"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
@@ -3803,7 +3844,7 @@
       <c r="F126" s="28"/>
       <c r="G126" s="27"/>
       <c r="H126" s="28"/>
-      <c r="I126" s="36"/>
+      <c r="I126" s="35"/>
       <c r="J126" s="27"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
@@ -3824,7 +3865,7 @@
       <c r="F127" s="28"/>
       <c r="G127" s="27"/>
       <c r="H127" s="28"/>
-      <c r="I127" s="36"/>
+      <c r="I127" s="35"/>
       <c r="J127" s="27"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
@@ -3845,7 +3886,7 @@
       <c r="F128" s="28"/>
       <c r="G128" s="27"/>
       <c r="H128" s="28"/>
-      <c r="I128" s="36"/>
+      <c r="I128" s="35"/>
       <c r="J128" s="27"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
@@ -3866,7 +3907,7 @@
       <c r="F129" s="28"/>
       <c r="G129" s="27"/>
       <c r="H129" s="28"/>
-      <c r="I129" s="36"/>
+      <c r="I129" s="35"/>
       <c r="J129" s="27"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
@@ -3887,7 +3928,7 @@
       <c r="F130" s="28"/>
       <c r="G130" s="27"/>
       <c r="H130" s="28"/>
-      <c r="I130" s="36"/>
+      <c r="I130" s="35"/>
       <c r="J130" s="27"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
@@ -3908,7 +3949,7 @@
       <c r="F131" s="28"/>
       <c r="G131" s="27"/>
       <c r="H131" s="28"/>
-      <c r="I131" s="36"/>
+      <c r="I131" s="35"/>
       <c r="J131" s="27"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
@@ -3929,7 +3970,7 @@
       <c r="F132" s="28"/>
       <c r="G132" s="27"/>
       <c r="H132" s="28"/>
-      <c r="I132" s="36"/>
+      <c r="I132" s="35"/>
       <c r="J132" s="27"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
@@ -3950,7 +3991,7 @@
       <c r="F133" s="28"/>
       <c r="G133" s="27"/>
       <c r="H133" s="28"/>
-      <c r="I133" s="36"/>
+      <c r="I133" s="35"/>
       <c r="J133" s="27"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
@@ -3971,7 +4012,7 @@
       <c r="F134" s="28"/>
       <c r="G134" s="27"/>
       <c r="H134" s="28"/>
-      <c r="I134" s="36"/>
+      <c r="I134" s="35"/>
       <c r="J134" s="27"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
@@ -3992,7 +4033,7 @@
       <c r="F135" s="28"/>
       <c r="G135" s="27"/>
       <c r="H135" s="28"/>
-      <c r="I135" s="36"/>
+      <c r="I135" s="35"/>
       <c r="J135" s="27"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
@@ -4013,7 +4054,7 @@
       <c r="F136" s="28"/>
       <c r="G136" s="27"/>
       <c r="H136" s="28"/>
-      <c r="I136" s="36"/>
+      <c r="I136" s="35"/>
       <c r="J136" s="27"/>
       <c r="K136" s="27"/>
       <c r="L136" s="27"/>
@@ -4034,7 +4075,7 @@
       <c r="F137" s="28"/>
       <c r="G137" s="27"/>
       <c r="H137" s="28"/>
-      <c r="I137" s="36"/>
+      <c r="I137" s="35"/>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
       <c r="L137" s="27"/>
@@ -4055,7 +4096,7 @@
       <c r="F138" s="28"/>
       <c r="G138" s="27"/>
       <c r="H138" s="28"/>
-      <c r="I138" s="36"/>
+      <c r="I138" s="35"/>
       <c r="J138" s="27"/>
       <c r="K138" s="27"/>
       <c r="L138" s="27"/>
@@ -4076,7 +4117,7 @@
       <c r="F139" s="28"/>
       <c r="G139" s="27"/>
       <c r="H139" s="28"/>
-      <c r="I139" s="36"/>
+      <c r="I139" s="35"/>
       <c r="J139" s="27"/>
       <c r="K139" s="27"/>
       <c r="L139" s="27"/>
@@ -4097,7 +4138,7 @@
       <c r="F140" s="28"/>
       <c r="G140" s="27"/>
       <c r="H140" s="28"/>
-      <c r="I140" s="36"/>
+      <c r="I140" s="35"/>
       <c r="J140" s="27"/>
       <c r="K140" s="27"/>
       <c r="L140" s="27"/>
@@ -4118,7 +4159,7 @@
       <c r="F141" s="28"/>
       <c r="G141" s="27"/>
       <c r="H141" s="28"/>
-      <c r="I141" s="36"/>
+      <c r="I141" s="35"/>
       <c r="J141" s="27"/>
       <c r="K141" s="27"/>
       <c r="L141" s="27"/>
@@ -4139,7 +4180,7 @@
       <c r="F142" s="28"/>
       <c r="G142" s="27"/>
       <c r="H142" s="28"/>
-      <c r="I142" s="36"/>
+      <c r="I142" s="35"/>
       <c r="J142" s="27"/>
       <c r="K142" s="27"/>
       <c r="L142" s="27"/>
@@ -4160,7 +4201,7 @@
       <c r="F143" s="28"/>
       <c r="G143" s="27"/>
       <c r="H143" s="28"/>
-      <c r="I143" s="36"/>
+      <c r="I143" s="35"/>
       <c r="J143" s="27"/>
       <c r="K143" s="27"/>
       <c r="L143" s="27"/>
@@ -4181,7 +4222,7 @@
       <c r="F144" s="28"/>
       <c r="G144" s="27"/>
       <c r="H144" s="28"/>
-      <c r="I144" s="36"/>
+      <c r="I144" s="35"/>
       <c r="J144" s="27"/>
       <c r="K144" s="27"/>
       <c r="L144" s="27"/>
@@ -4202,7 +4243,7 @@
       <c r="F145" s="28"/>
       <c r="G145" s="27"/>
       <c r="H145" s="28"/>
-      <c r="I145" s="36"/>
+      <c r="I145" s="35"/>
       <c r="J145" s="27"/>
       <c r="K145" s="27"/>
       <c r="L145" s="27"/>
@@ -4223,7 +4264,7 @@
       <c r="F146" s="28"/>
       <c r="G146" s="27"/>
       <c r="H146" s="28"/>
-      <c r="I146" s="36"/>
+      <c r="I146" s="35"/>
       <c r="J146" s="27"/>
       <c r="K146" s="27"/>
       <c r="L146" s="27"/>
@@ -4244,7 +4285,7 @@
       <c r="F147" s="28"/>
       <c r="G147" s="27"/>
       <c r="H147" s="28"/>
-      <c r="I147" s="36"/>
+      <c r="I147" s="35"/>
       <c r="J147" s="27"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
@@ -4265,7 +4306,7 @@
       <c r="F148" s="28"/>
       <c r="G148" s="27"/>
       <c r="H148" s="28"/>
-      <c r="I148" s="36"/>
+      <c r="I148" s="35"/>
       <c r="J148" s="27"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
@@ -4286,7 +4327,7 @@
       <c r="F149" s="28"/>
       <c r="G149" s="27"/>
       <c r="H149" s="28"/>
-      <c r="I149" s="36"/>
+      <c r="I149" s="35"/>
       <c r="J149" s="27"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
@@ -4307,7 +4348,7 @@
       <c r="F150" s="28"/>
       <c r="G150" s="27"/>
       <c r="H150" s="28"/>
-      <c r="I150" s="36"/>
+      <c r="I150" s="35"/>
       <c r="J150" s="27"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
@@ -4328,7 +4369,7 @@
       <c r="F151" s="28"/>
       <c r="G151" s="27"/>
       <c r="H151" s="28"/>
-      <c r="I151" s="36"/>
+      <c r="I151" s="35"/>
       <c r="J151" s="27"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
@@ -4349,7 +4390,7 @@
       <c r="F152" s="28"/>
       <c r="G152" s="27"/>
       <c r="H152" s="28"/>
-      <c r="I152" s="36"/>
+      <c r="I152" s="35"/>
       <c r="J152" s="27"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
@@ -4370,7 +4411,7 @@
       <c r="F153" s="28"/>
       <c r="G153" s="27"/>
       <c r="H153" s="28"/>
-      <c r="I153" s="36"/>
+      <c r="I153" s="35"/>
       <c r="J153" s="27"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
@@ -4391,7 +4432,7 @@
       <c r="F154" s="28"/>
       <c r="G154" s="27"/>
       <c r="H154" s="28"/>
-      <c r="I154" s="36"/>
+      <c r="I154" s="35"/>
       <c r="J154" s="27"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
@@ -4412,7 +4453,7 @@
       <c r="F155" s="28"/>
       <c r="G155" s="27"/>
       <c r="H155" s="28"/>
-      <c r="I155" s="36"/>
+      <c r="I155" s="35"/>
       <c r="J155" s="27"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
@@ -4433,7 +4474,7 @@
       <c r="F156" s="28"/>
       <c r="G156" s="27"/>
       <c r="H156" s="28"/>
-      <c r="I156" s="36"/>
+      <c r="I156" s="35"/>
       <c r="J156" s="27"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
@@ -4454,7 +4495,7 @@
       <c r="F157" s="28"/>
       <c r="G157" s="27"/>
       <c r="H157" s="28"/>
-      <c r="I157" s="36"/>
+      <c r="I157" s="35"/>
       <c r="J157" s="27"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
@@ -4475,16 +4516,13 @@
       <c r="F158" s="28"/>
       <c r="G158" s="27"/>
       <c r="H158" s="28"/>
-      <c r="I158" s="36"/>
+      <c r="I158" s="35"/>
       <c r="J158" s="27"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="27"/>
       <c r="N158" s="28"/>
       <c r="O158" s="24"/>
-      <c r="P158" s="27"/>
-      <c r="Q158" s="27"/>
-      <c r="R158" s="27"/>
       <c r="S158" s="24"/>
     </row>
     <row r="159" spans="1:19">
@@ -4496,7 +4534,7 @@
       <c r="F159" s="28"/>
       <c r="G159" s="27"/>
       <c r="H159" s="28"/>
-      <c r="I159" s="36"/>
+      <c r="I159" s="35"/>
       <c r="J159" s="27"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
@@ -4514,7 +4552,7 @@
       <c r="F160" s="28"/>
       <c r="G160" s="27"/>
       <c r="H160" s="28"/>
-      <c r="I160" s="36"/>
+      <c r="I160" s="35"/>
       <c r="J160" s="27"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
@@ -4532,7 +4570,7 @@
       <c r="F161" s="28"/>
       <c r="G161" s="27"/>
       <c r="H161" s="28"/>
-      <c r="I161" s="36"/>
+      <c r="I161" s="35"/>
       <c r="J161" s="27"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
@@ -4550,7 +4588,7 @@
       <c r="F162" s="28"/>
       <c r="G162" s="27"/>
       <c r="H162" s="28"/>
-      <c r="I162" s="36"/>
+      <c r="I162" s="35"/>
       <c r="J162" s="27"/>
       <c r="K162" s="27"/>
       <c r="L162" s="27"/>
@@ -4568,7 +4606,7 @@
       <c r="F163" s="28"/>
       <c r="G163" s="27"/>
       <c r="H163" s="28"/>
-      <c r="I163" s="36"/>
+      <c r="I163" s="35"/>
       <c r="J163" s="27"/>
       <c r="K163" s="27"/>
       <c r="L163" s="27"/>
@@ -4586,7 +4624,7 @@
       <c r="F164" s="28"/>
       <c r="G164" s="27"/>
       <c r="H164" s="28"/>
-      <c r="I164" s="36"/>
+      <c r="I164" s="35"/>
       <c r="J164" s="27"/>
       <c r="K164" s="27"/>
       <c r="L164" s="27"/>
@@ -4604,7 +4642,7 @@
       <c r="F165" s="28"/>
       <c r="G165" s="27"/>
       <c r="H165" s="28"/>
-      <c r="I165" s="36"/>
+      <c r="I165" s="35"/>
       <c r="J165" s="27"/>
       <c r="K165" s="27"/>
       <c r="L165" s="27"/>
@@ -4622,7 +4660,7 @@
       <c r="F166" s="28"/>
       <c r="G166" s="27"/>
       <c r="H166" s="28"/>
-      <c r="I166" s="36"/>
+      <c r="I166" s="35"/>
       <c r="J166" s="27"/>
       <c r="K166" s="27"/>
       <c r="L166" s="27"/>
@@ -4640,7 +4678,7 @@
       <c r="F167" s="28"/>
       <c r="G167" s="27"/>
       <c r="H167" s="28"/>
-      <c r="I167" s="36"/>
+      <c r="I167" s="35"/>
       <c r="J167" s="27"/>
       <c r="K167" s="27"/>
       <c r="L167" s="27"/>
@@ -4658,7 +4696,7 @@
       <c r="F168" s="28"/>
       <c r="G168" s="27"/>
       <c r="H168" s="28"/>
-      <c r="I168" s="36"/>
+      <c r="I168" s="35"/>
       <c r="J168" s="27"/>
       <c r="K168" s="27"/>
       <c r="L168" s="27"/>
@@ -4676,7 +4714,7 @@
       <c r="F169" s="28"/>
       <c r="G169" s="27"/>
       <c r="H169" s="28"/>
-      <c r="I169" s="36"/>
+      <c r="I169" s="35"/>
       <c r="J169" s="27"/>
       <c r="K169" s="27"/>
       <c r="L169" s="27"/>
@@ -4694,7 +4732,7 @@
       <c r="F170" s="28"/>
       <c r="G170" s="27"/>
       <c r="H170" s="28"/>
-      <c r="I170" s="36"/>
+      <c r="I170" s="35"/>
       <c r="J170" s="27"/>
       <c r="K170" s="27"/>
       <c r="L170" s="27"/>
@@ -4712,7 +4750,7 @@
       <c r="F171" s="28"/>
       <c r="G171" s="27"/>
       <c r="H171" s="28"/>
-      <c r="I171" s="36"/>
+      <c r="I171" s="35"/>
       <c r="J171" s="27"/>
       <c r="K171" s="27"/>
       <c r="L171" s="27"/>
@@ -4730,7 +4768,7 @@
       <c r="F172" s="28"/>
       <c r="G172" s="27"/>
       <c r="H172" s="28"/>
-      <c r="I172" s="36"/>
+      <c r="I172" s="35"/>
       <c r="J172" s="27"/>
       <c r="K172" s="27"/>
       <c r="L172" s="27"/>
@@ -4748,7 +4786,7 @@
       <c r="F173" s="28"/>
       <c r="G173" s="27"/>
       <c r="H173" s="28"/>
-      <c r="I173" s="36"/>
+      <c r="I173" s="35"/>
       <c r="J173" s="27"/>
       <c r="K173" s="27"/>
       <c r="L173" s="27"/>
@@ -4766,7 +4804,7 @@
       <c r="F174" s="28"/>
       <c r="G174" s="27"/>
       <c r="H174" s="28"/>
-      <c r="I174" s="36"/>
+      <c r="I174" s="35"/>
       <c r="J174" s="27"/>
       <c r="K174" s="27"/>
       <c r="L174" s="27"/>
@@ -4784,7 +4822,7 @@
       <c r="F175" s="28"/>
       <c r="G175" s="27"/>
       <c r="H175" s="28"/>
-      <c r="I175" s="36"/>
+      <c r="I175" s="35"/>
       <c r="J175" s="27"/>
       <c r="K175" s="27"/>
       <c r="L175" s="27"/>
@@ -4802,7 +4840,7 @@
       <c r="F176" s="28"/>
       <c r="G176" s="27"/>
       <c r="H176" s="28"/>
-      <c r="I176" s="36"/>
+      <c r="I176" s="35"/>
       <c r="J176" s="27"/>
       <c r="K176" s="27"/>
       <c r="L176" s="27"/>
@@ -4820,7 +4858,7 @@
       <c r="F177" s="28"/>
       <c r="G177" s="27"/>
       <c r="H177" s="28"/>
-      <c r="I177" s="36"/>
+      <c r="I177" s="35"/>
       <c r="J177" s="27"/>
       <c r="K177" s="27"/>
       <c r="L177" s="27"/>
@@ -4838,7 +4876,7 @@
       <c r="F178" s="28"/>
       <c r="G178" s="27"/>
       <c r="H178" s="28"/>
-      <c r="I178" s="36"/>
+      <c r="I178" s="35"/>
       <c r="J178" s="27"/>
       <c r="K178" s="27"/>
       <c r="L178" s="27"/>
@@ -4856,7 +4894,7 @@
       <c r="F179" s="28"/>
       <c r="G179" s="27"/>
       <c r="H179" s="28"/>
-      <c r="I179" s="36"/>
+      <c r="I179" s="35"/>
       <c r="J179" s="27"/>
       <c r="K179" s="27"/>
       <c r="L179" s="27"/>
@@ -4874,7 +4912,7 @@
       <c r="F180" s="28"/>
       <c r="G180" s="27"/>
       <c r="H180" s="28"/>
-      <c r="I180" s="36"/>
+      <c r="I180" s="35"/>
       <c r="J180" s="27"/>
       <c r="K180" s="27"/>
       <c r="L180" s="27"/>
@@ -4892,7 +4930,7 @@
       <c r="F181" s="28"/>
       <c r="G181" s="27"/>
       <c r="H181" s="28"/>
-      <c r="I181" s="36"/>
+      <c r="I181" s="35"/>
       <c r="J181" s="27"/>
       <c r="K181" s="27"/>
       <c r="L181" s="27"/>
@@ -4910,7 +4948,7 @@
       <c r="F182" s="28"/>
       <c r="G182" s="27"/>
       <c r="H182" s="28"/>
-      <c r="I182" s="36"/>
+      <c r="I182" s="35"/>
       <c r="J182" s="27"/>
       <c r="K182" s="27"/>
       <c r="L182" s="27"/>
@@ -4928,7 +4966,7 @@
       <c r="F183" s="28"/>
       <c r="G183" s="27"/>
       <c r="H183" s="28"/>
-      <c r="I183" s="36"/>
+      <c r="I183" s="35"/>
       <c r="J183" s="27"/>
       <c r="K183" s="27"/>
       <c r="L183" s="27"/>
@@ -4946,7 +4984,7 @@
       <c r="F184" s="28"/>
       <c r="G184" s="27"/>
       <c r="H184" s="28"/>
-      <c r="I184" s="36"/>
+      <c r="I184" s="35"/>
       <c r="J184" s="27"/>
       <c r="K184" s="27"/>
       <c r="L184" s="27"/>
@@ -4964,7 +5002,7 @@
       <c r="F185" s="28"/>
       <c r="G185" s="27"/>
       <c r="H185" s="28"/>
-      <c r="I185" s="36"/>
+      <c r="I185" s="35"/>
       <c r="J185" s="27"/>
       <c r="K185" s="27"/>
       <c r="L185" s="27"/>
@@ -4982,7 +5020,7 @@
       <c r="F186" s="28"/>
       <c r="G186" s="27"/>
       <c r="H186" s="28"/>
-      <c r="I186" s="36"/>
+      <c r="I186" s="35"/>
       <c r="J186" s="27"/>
       <c r="K186" s="27"/>
       <c r="L186" s="27"/>
@@ -4993,17 +5031,6 @@
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="27"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="28"/>
-      <c r="I187" s="36"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="27"/>
       <c r="M187" s="27"/>
       <c r="N187" s="28"/>
       <c r="O187" s="24"/>
@@ -5018,7 +5045,6 @@
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="27"/>
-      <c r="M189" s="27"/>
       <c r="N189" s="28"/>
       <c r="O189" s="24"/>
       <c r="S189" s="24"/>
@@ -5031,7 +5057,6 @@
     </row>
     <row r="191" spans="1:19">
       <c r="A191" s="27"/>
-      <c r="N191" s="28"/>
       <c r="O191" s="24"/>
       <c r="S191" s="24"/>
     </row>
@@ -5040,13 +5065,8 @@
       <c r="O192" s="24"/>
       <c r="S192" s="24"/>
     </row>
-    <row r="193" spans="1:19">
-      <c r="A193" s="27"/>
-      <c r="O193" s="24"/>
-      <c r="S193" s="24"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S13"/>
+  <autoFilter ref="A1:S12"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_极光组.xlsx
+++ b/VersionRecords/Version 5.0.3/版本Bug和特性计划及评审表v5.0.3_极光组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财审核中和审核拒绝状态，租客账单逾期产生滞纳金问题</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +945,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1328,22 +1332,50 @@
       <c r="S7" s="40"/>
       <c r="T7" s="41"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="33">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="20">
+        <v>42653</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20">
+        <v>42653</v>
+      </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="29"/>
+      <c r="J8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="20">
+        <v>42653</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
